--- a/Entregavel_02/Sprint_03/GPR/Documentos GPR/GPR-PCO-PLANO_DE_COMUNICAÇÃO.xlsx
+++ b/Entregavel_02/Sprint_03/GPR/Documentos GPR/GPR-PCO-PLANO_DE_COMUNICAÇÃO.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Plano de Comunicação</t>
   </si>
@@ -28,18 +28,12 @@
     <t>Realização</t>
   </si>
   <si>
-    <t>Reunião</t>
-  </si>
-  <si>
     <t>Reunião Sprint 1</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>ATA</t>
-  </si>
-  <si>
     <t>Reunião Sprint 2</t>
   </si>
   <si>
@@ -50,6 +44,9 @@
   </si>
   <si>
     <t>Sucesso</t>
+  </si>
+  <si>
+    <t>ATA / Relatorio de Comunicação</t>
   </si>
 </sst>
 </file>
@@ -190,17 +187,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,7 +496,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -513,13 +510,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1">
@@ -530,13 +527,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -545,16 +542,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
         <v>42399</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -563,16 +560,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42408</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="10">
-        <v>42408</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -581,16 +578,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42413</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>42413</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
     </row>
